--- a/Volunteer Data Tracker.xlsx
+++ b/Volunteer Data Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mothers English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DMECC-Codebase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE2C54-5A0E-49CD-B2E2-C046DDA9D130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D0F1F-4E39-4E00-9369-B5EAC2B09D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{5DCEDBF0-2921-8C48-A18A-71523FCE5621}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5DCEDBF0-2921-8C48-A18A-71523FCE5621}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="449">
   <si>
     <t>ID #</t>
   </si>
@@ -618,9 +618,6 @@
     <t xml:space="preserve">Xuanyi Liu </t>
   </si>
   <si>
-    <t>+86 15382262916</t>
-  </si>
-  <si>
     <t>xuanyi.liu.xuanyi@daischina.net</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
     <t>Ian Raymond Liu</t>
   </si>
   <si>
-    <t>186-1031-3590</t>
-  </si>
-  <si>
     <t>Ian.liu@daischina.net</t>
   </si>
   <si>
@@ -678,9 +672,6 @@
     <t>Gao MiJia</t>
   </si>
   <si>
-    <t>+86 13940839111</t>
-  </si>
-  <si>
     <t>mijia.gao@daischina.net</t>
   </si>
   <si>
@@ -750,9 +741,6 @@
     <t>李洛宁</t>
   </si>
   <si>
-    <t>+86 13214135225</t>
-  </si>
-  <si>
     <t>3139774383@qq.com</t>
   </si>
   <si>
@@ -801,9 +789,6 @@
     <t>JaeWon Lee</t>
   </si>
   <si>
-    <t>155-4119-7002</t>
-  </si>
-  <si>
     <t>dragonjw07@gmail.com</t>
   </si>
   <si>
@@ -948,9 +933,6 @@
     <t>Chuntian Bian</t>
   </si>
   <si>
-    <t>+86 13644986466</t>
-  </si>
-  <si>
     <t>chuntian.Bian@daischina.net</t>
   </si>
   <si>
@@ -1399,14 +1381,18 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>3 10 2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1585,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1619,13 +1605,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2088,32 +2076,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAA589B-000E-0B45-9E72-F12A7868D771}">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N40" sqref="N40"/>
+      <selection pane="topRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="15" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="15" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="40.75" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.375" style="9" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="13" max="13" width="96.625" customWidth="1"/>
     <col min="14" max="14" width="54.5" customWidth="1"/>
     <col min="16" max="16" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2156,11 +2144,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2185,8 +2173,8 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2">
-        <v>37690</v>
+      <c r="I2" s="27" t="s">
+        <v>448</v>
       </c>
       <c r="J2" s="9">
         <v>43327</v>
@@ -2198,13 +2186,13 @@
         <v>2021</v>
       </c>
       <c r="M2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2229,7 +2217,7 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="27">
         <v>38330</v>
       </c>
       <c r="J3" s="9">
@@ -2242,13 +2230,13 @@
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2273,7 +2261,7 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="27">
         <v>37513</v>
       </c>
       <c r="J4" s="9">
@@ -2286,19 +2274,19 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2323,7 +2311,7 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="27">
         <v>37616</v>
       </c>
       <c r="J5" s="9">
@@ -2336,16 +2324,16 @@
         <v>2021</v>
       </c>
       <c r="M5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N5" t="s">
-        <v>453</v>
-      </c>
-      <c r="P5" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2370,7 +2358,7 @@
       <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="27">
         <v>38089</v>
       </c>
       <c r="J6" s="9">
@@ -2388,11 +2376,11 @@
       <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2405,7 @@
       <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="27">
         <v>37630</v>
       </c>
       <c r="J7" s="9">
@@ -2435,11 +2423,11 @@
       <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -2464,7 +2452,7 @@
       <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="27">
         <v>38171</v>
       </c>
       <c r="J8" s="9">
@@ -2482,11 +2470,11 @@
       <c r="N8" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -2511,7 +2499,7 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="27">
         <v>38526</v>
       </c>
       <c r="J9" s="9">
@@ -2529,11 +2517,11 @@
       <c r="N9" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -2558,7 +2546,7 @@
       <c r="H10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="27">
         <v>38249</v>
       </c>
       <c r="J10" s="9">
@@ -2576,11 +2564,11 @@
       <c r="N10" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -2605,7 +2593,7 @@
       <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="27">
         <v>38188</v>
       </c>
       <c r="J11" s="9">
@@ -2623,9 +2611,9 @@
       <c r="N11" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -2650,7 +2638,7 @@
       <c r="H12" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="27">
         <v>38073</v>
       </c>
       <c r="J12" s="9">
@@ -2668,9 +2656,9 @@
       <c r="N12" t="s">
         <v>96</v>
       </c>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -2695,7 +2683,7 @@
       <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="27">
         <v>38441</v>
       </c>
       <c r="J13" s="9">
@@ -2713,9 +2701,9 @@
       <c r="N13" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -2740,7 +2728,7 @@
       <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="27">
         <v>38924</v>
       </c>
       <c r="J14" s="9">
@@ -2758,12 +2746,12 @@
       <c r="N14" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" t="s">
+      <c r="W14" s="5"/>
+      <c r="X14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -2788,7 +2776,7 @@
       <c r="H15" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="27">
         <v>37829</v>
       </c>
       <c r="J15" s="9">
@@ -2804,10 +2792,10 @@
         <v>117</v>
       </c>
       <c r="N15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
@@ -2832,7 +2820,7 @@
       <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="27">
         <v>38626</v>
       </c>
       <c r="J16" s="9">
@@ -2845,12 +2833,12 @@
         <v>2023</v>
       </c>
       <c r="M16" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N16" t="s">
         <v>124</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="W16" s="8" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2879,7 +2867,7 @@
       <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="27">
         <v>38082</v>
       </c>
       <c r="J17" s="9">
@@ -2892,12 +2880,12 @@
         <v>2022</v>
       </c>
       <c r="M17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N17" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2926,7 +2914,7 @@
       <c r="H18" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="27">
         <v>38706</v>
       </c>
       <c r="J18" s="9">
@@ -2939,12 +2927,12 @@
         <v>2024</v>
       </c>
       <c r="M18" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N18" t="s">
         <v>139</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2973,7 +2961,7 @@
       <c r="H19" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="27">
         <v>37494</v>
       </c>
       <c r="J19" s="9">
@@ -2989,9 +2977,9 @@
         <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>453</v>
-      </c>
-      <c r="P19" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="W19" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3020,7 +3008,7 @@
       <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="27">
         <v>39054</v>
       </c>
       <c r="J20" s="9">
@@ -3038,7 +3026,7 @@
       <c r="N20" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3067,7 +3055,7 @@
       <c r="H21" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="27">
         <v>38516</v>
       </c>
       <c r="J21" s="9">
@@ -3080,12 +3068,12 @@
         <v>2023</v>
       </c>
       <c r="M21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N21" t="s">
         <v>159</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3114,7 +3102,7 @@
       <c r="H22" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="27">
         <v>37542</v>
       </c>
       <c r="J22" s="9">
@@ -3127,12 +3115,12 @@
         <v>2022</v>
       </c>
       <c r="M22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N22" t="s">
         <v>166</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3161,7 +3149,7 @@
       <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="27">
         <v>38959</v>
       </c>
       <c r="J23" s="9">
@@ -3179,7 +3167,7 @@
       <c r="N23" t="s">
         <v>174</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3208,7 +3196,7 @@
       <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="27">
         <v>38336</v>
       </c>
       <c r="J24" s="9">
@@ -3226,7 +3214,7 @@
       <c r="N24" t="s">
         <v>181</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3255,7 +3243,7 @@
       <c r="H25" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="27">
         <v>38953</v>
       </c>
       <c r="J25" s="9">
@@ -3273,7 +3261,7 @@
       <c r="N25" t="s">
         <v>188</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="W25" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3287,14 +3275,14 @@
       <c r="C26" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>15382262916</v>
+      </c>
+      <c r="E26" t="s">
         <v>193</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>195</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
@@ -3302,7 +3290,7 @@
       <c r="H26" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="27">
         <v>37840</v>
       </c>
       <c r="J26" s="9">
@@ -3315,30 +3303,30 @@
         <v>2021</v>
       </c>
       <c r="M26" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
         <v>197</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>199</v>
       </c>
       <c r="D27">
         <v>17824874592</v>
       </c>
       <c r="E27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -3346,7 +3334,7 @@
       <c r="H27" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="27">
         <v>37641</v>
       </c>
       <c r="J27" s="9">
@@ -3362,27 +3350,27 @@
         <v>95</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28">
+        <v>18610313590</v>
+      </c>
+      <c r="E28" t="s">
         <v>205</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="E28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -3390,7 +3378,7 @@
       <c r="H28" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="27">
         <v>38679</v>
       </c>
       <c r="J28" s="9">
@@ -3406,27 +3394,27 @@
         <v>95</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="D29">
+        <v>13940839111</v>
+      </c>
+      <c r="E29" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="F29" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="D29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="G29" t="s">
         <v>28</v>
@@ -3434,7 +3422,7 @@
       <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="27">
         <v>38572</v>
       </c>
       <c r="J29" s="9">
@@ -3450,27 +3438,27 @@
         <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D30" s="14">
         <v>13079867812</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>138</v>
@@ -3478,10 +3466,10 @@
       <c r="H30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="28">
         <v>38567</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="23">
         <v>44100</v>
       </c>
       <c r="K30" s="14" t="s">
@@ -3494,7 +3482,7 @@
         <v>173</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -3508,22 +3496,22 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D31" s="14">
         <v>15140462720</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>138</v>
@@ -3531,10 +3519,10 @@
       <c r="H31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="28">
         <v>38263</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="23">
         <v>44100</v>
       </c>
       <c r="K31" s="14" t="s">
@@ -3547,7 +3535,7 @@
         <v>173</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
@@ -3561,22 +3549,22 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D32" s="14">
         <v>13084142980</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>138</v>
@@ -3584,10 +3572,10 @@
       <c r="H32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="28">
         <v>38567</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="23">
         <v>44101</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -3597,10 +3585,10 @@
         <v>2023</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -3614,19 +3602,19 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="14">
+        <v>13214135225</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>238</v>
       </c>
       <c r="F33" s="22">
         <v>3139774383</v>
@@ -3637,10 +3625,10 @@
       <c r="H33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="28">
         <v>38166</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="23">
         <v>44110</v>
       </c>
       <c r="K33" s="14" t="s">
@@ -3653,7 +3641,7 @@
         <v>67</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
@@ -3667,22 +3655,22 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D34" s="14">
         <v>13998672310</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>138</v>
@@ -3690,10 +3678,10 @@
       <c r="H34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="28">
         <v>37694</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="23">
         <v>44110</v>
       </c>
       <c r="K34" s="14" t="s">
@@ -3703,10 +3691,10 @@
         <v>2022</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
@@ -3720,22 +3708,22 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D35" s="14">
         <v>13394172207</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>138</v>
@@ -3743,10 +3731,10 @@
       <c r="H35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="28">
         <v>37655</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="23">
         <v>44110</v>
       </c>
       <c r="K35" s="14" t="s">
@@ -3759,7 +3747,7 @@
         <v>51</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -3773,22 +3761,22 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="14">
+        <v>15541197002</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>138</v>
@@ -3796,10 +3784,10 @@
       <c r="H36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="28">
         <v>37461</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="23">
         <v>44110</v>
       </c>
       <c r="K36" s="14" t="s">
@@ -3812,7 +3800,7 @@
         <v>51</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
@@ -3826,22 +3814,22 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D37" s="14">
         <v>18641778888</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>28</v>
@@ -3849,10 +3837,10 @@
       <c r="H37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="29">
         <v>38216</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="24">
         <v>44119</v>
       </c>
       <c r="K37" s="19" t="s">
@@ -3877,22 +3865,22 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D38">
         <v>15734141962</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
         <v>138</v>
@@ -3900,10 +3888,10 @@
       <c r="H38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="28">
         <v>38664</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="23">
         <v>44125.946157407408</v>
       </c>
       <c r="K38" s="19" t="s">
@@ -3913,10 +3901,10 @@
         <v>2023</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
@@ -3930,30 +3918,30 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D39">
         <v>15524121327</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
         <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
-      </c>
-      <c r="I39" s="2">
+        <v>267</v>
+      </c>
+      <c r="I39" s="27">
         <v>38165</v>
       </c>
       <c r="J39" s="9">
@@ -3969,35 +3957,35 @@
         <v>59</v>
       </c>
       <c r="N39" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D40">
         <v>18842564913</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s">
         <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>279</v>
-      </c>
-      <c r="I40" s="2">
+        <v>274</v>
+      </c>
+      <c r="I40" s="27">
         <v>38196</v>
       </c>
       <c r="J40" s="9">
@@ -4010,30 +3998,30 @@
         <v>2022</v>
       </c>
       <c r="M40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D41">
         <v>15140313526</v>
       </c>
       <c r="E41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
@@ -4041,7 +4029,7 @@
       <c r="H41" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="27">
         <v>38376</v>
       </c>
       <c r="J41" s="9">
@@ -4054,18 +4042,18 @@
         <v>2023</v>
       </c>
       <c r="M41" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>99</v>
@@ -4074,7 +4062,7 @@
         <v>13764840169</v>
       </c>
       <c r="E42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>101</v>
@@ -4085,7 +4073,7 @@
       <c r="H42" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="27">
         <v>38441</v>
       </c>
       <c r="J42" s="9">
@@ -4098,38 +4086,38 @@
         <v>2023</v>
       </c>
       <c r="M42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N42" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D43">
         <v>15542571316</v>
       </c>
       <c r="E43" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="27">
         <v>38584</v>
       </c>
       <c r="J43" s="9">
@@ -4142,30 +4130,30 @@
         <v>2023</v>
       </c>
       <c r="M43" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N43" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D44" t="s">
-        <v>303</v>
+        <v>297</v>
+      </c>
+      <c r="D44">
+        <v>13644986466</v>
       </c>
       <c r="E44" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G44" t="s">
         <v>28</v>
@@ -4173,7 +4161,7 @@
       <c r="H44" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="27">
         <v>38409</v>
       </c>
       <c r="J44" s="9">
@@ -4186,30 +4174,30 @@
         <v>2024</v>
       </c>
       <c r="M44" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N44" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D45">
         <v>18642676193</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G45" t="s">
         <v>28</v>
@@ -4217,7 +4205,7 @@
       <c r="H45" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="27">
         <v>39399</v>
       </c>
       <c r="J45" s="9">
@@ -4233,18 +4221,18 @@
         <v>117</v>
       </c>
       <c r="N45" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D46">
         <v>13940189767</v>
@@ -4253,7 +4241,7 @@
         <v>65</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
         <v>28</v>
@@ -4261,7 +4249,7 @@
       <c r="H46" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="27">
         <v>38171</v>
       </c>
       <c r="J46" s="9">
@@ -4274,30 +4262,30 @@
         <v>2023</v>
       </c>
       <c r="M46" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N46" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D47">
         <v>13998588117</v>
       </c>
       <c r="E47" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
         <v>28</v>
@@ -4305,7 +4293,7 @@
       <c r="H47" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="27">
         <v>38354</v>
       </c>
       <c r="J47" s="9">
@@ -4318,30 +4306,30 @@
         <v>2023</v>
       </c>
       <c r="M47" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N47" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D48">
         <v>13840821942</v>
       </c>
       <c r="E48" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
@@ -4349,7 +4337,7 @@
       <c r="H48" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="27">
         <v>38416</v>
       </c>
       <c r="J48" s="9">
@@ -4362,30 +4350,30 @@
         <v>2023</v>
       </c>
       <c r="M48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D49">
         <v>15524755258</v>
       </c>
       <c r="E49" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G49" t="s">
         <v>138</v>
@@ -4393,7 +4381,7 @@
       <c r="H49" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="27">
         <v>38261</v>
       </c>
       <c r="J49" s="9">
@@ -4406,30 +4394,30 @@
         <v>2022</v>
       </c>
       <c r="M49" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N49" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D50">
         <v>13332210816</v>
       </c>
       <c r="E50" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G50" t="s">
         <v>28</v>
@@ -4437,7 +4425,7 @@
       <c r="H50" t="s">
         <v>50</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="27">
         <v>38454</v>
       </c>
       <c r="J50" s="9">
@@ -4450,38 +4438,38 @@
         <v>2023</v>
       </c>
       <c r="M50" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N50" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D51">
         <v>13019499886</v>
       </c>
       <c r="E51" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G51" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H51" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="27">
         <v>38569</v>
       </c>
       <c r="J51" s="9">
@@ -4494,27 +4482,27 @@
         <v>2023</v>
       </c>
       <c r="M51" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="N51" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D52">
         <v>19969878360</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F52" s="15">
         <v>19969878360</v>
@@ -4525,7 +4513,7 @@
       <c r="H52" t="s">
         <v>50</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="27">
         <v>38345</v>
       </c>
       <c r="J52" s="9">
@@ -4538,38 +4526,38 @@
         <v>2022</v>
       </c>
       <c r="M52" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N52" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
         <v>142</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D53">
         <v>18190729832</v>
       </c>
       <c r="E53" t="s">
-        <v>355</v>
-      </c>
-      <c r="F53" s="27">
+        <v>349</v>
+      </c>
+      <c r="F53" s="26">
         <v>18190729832</v>
       </c>
       <c r="G53" t="s">
         <v>28</v>
       </c>
       <c r="H53" t="s">
-        <v>356</v>
-      </c>
-      <c r="I53" s="2">
+        <v>350</v>
+      </c>
+      <c r="I53" s="27">
         <v>37881</v>
       </c>
       <c r="J53" s="9">
@@ -4579,38 +4567,38 @@
         <v>21</v>
       </c>
       <c r="M53" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N53" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D54">
         <v>18382161969</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="15">
         <v>2603497892</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F54" s="26">
         <v>18382161969</v>
       </c>
       <c r="G54" t="s">
         <v>28</v>
       </c>
       <c r="H54" t="s">
-        <v>356</v>
-      </c>
-      <c r="I54" s="2">
+        <v>350</v>
+      </c>
+      <c r="I54" s="27">
         <v>38364</v>
       </c>
       <c r="J54" s="9">
@@ -4620,30 +4608,30 @@
         <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N54" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D55">
         <v>15542478300</v>
       </c>
       <c r="E55" t="s">
-        <v>363</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>358</v>
       </c>
       <c r="G55" t="s">
         <v>138</v>
@@ -4651,7 +4639,7 @@
       <c r="H55" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="27">
         <v>37852</v>
       </c>
       <c r="J55" s="9">
@@ -4667,35 +4655,35 @@
         <v>95</v>
       </c>
       <c r="N55" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D56">
         <v>13709094642</v>
       </c>
       <c r="E56" t="s">
-        <v>369</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>370</v>
+        <v>363</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>364</v>
       </c>
       <c r="G56" t="s">
         <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>356</v>
-      </c>
-      <c r="I56" s="2">
+        <v>350</v>
+      </c>
+      <c r="I56" s="27">
         <v>37880</v>
       </c>
       <c r="J56" s="9">
@@ -4705,30 +4693,30 @@
         <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N56" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D57">
         <v>13042494106</v>
       </c>
       <c r="E57" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -4736,7 +4724,7 @@
       <c r="H57" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="27">
         <v>38594</v>
       </c>
       <c r="J57" s="9">
@@ -4752,27 +4740,27 @@
         <v>102</v>
       </c>
       <c r="N57" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D58">
         <v>15998468045</v>
       </c>
       <c r="E58" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
@@ -4780,7 +4768,7 @@
       <c r="H58" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="27">
         <v>39048</v>
       </c>
       <c r="J58" s="9">
@@ -4796,18 +4784,18 @@
         <v>67</v>
       </c>
       <c r="N58" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D59">
         <v>13610956890</v>
@@ -4824,7 +4812,7 @@
       <c r="H59" t="s">
         <v>50</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="27">
         <v>38249</v>
       </c>
       <c r="J59" s="9">
@@ -4837,15 +4825,15 @@
         <v>2022</v>
       </c>
       <c r="M59" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N59" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s">
         <v>91</v>
@@ -4857,7 +4845,7 @@
         <v>15244779327</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>94</v>
@@ -4868,7 +4856,7 @@
       <c r="H60" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="27">
         <v>38073</v>
       </c>
       <c r="J60" s="9">
@@ -4881,33 +4869,34 @@
         <v>2023</v>
       </c>
       <c r="M60" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N60" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P69" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H36 H38:H41 I42:I52 H53:H69" xr:uid="{37ACF7E0-0C96-4D98-AB36-E85098034F95}">
-      <formula1>$P$5:$P$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H36 H53:H69 I42:I52 H38:H41" xr:uid="{37ACF7E0-0C96-4D98-AB36-E85098034F95}">
+      <formula1>$W$5:$W$14</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning: School Name not found" error="Please choose a school from the list or add a new school in column N" sqref="H2" xr:uid="{9655DC27-0010-4D7D-8603-229F005DF303}">
-      <formula1>$P$5:$P$14</formula1>
+      <formula1>$W$5:$W$14</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1" location="ID0EAADAAA=Web" xr:uid="{1107DE17-C3A5-484F-80CF-7A5E79D812C2}"/>
+    <hyperlink ref="Y4" r:id="rId1" location="ID0EAADAAA=Web" xr:uid="{1107DE17-C3A5-484F-80CF-7A5E79D812C2}"/>
     <hyperlink ref="E14" r:id="rId2" xr:uid="{E7D2A7D4-4948-4815-8F87-5FF17EB8646A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4933,28 +4922,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>391</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4967,7 +4956,7 @@
         <v>Jazper Lu</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -4982,7 +4971,7 @@
         <v>Jasmine</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -4997,12 +4986,12 @@
         <v>Megumi</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="K4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5015,12 +5004,12 @@
         <v>Amy</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="K5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5047,7 +5036,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="K7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5060,7 +5049,7 @@
         <v>Michelle</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -5075,15 +5064,15 @@
         <v>Nuoti</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="K9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5101,10 +5090,10 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="K10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5117,12 +5106,12 @@
         <v>Yolanda</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="K11" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5150,12 +5139,12 @@
         <v>Eileen Wu</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="K13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5168,7 +5157,7 @@
         <v>Shoan Cooper</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -5195,7 +5184,7 @@
         <v xml:space="preserve">Marian </v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -5225,7 +5214,7 @@
         <v>Jayden Kim</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -5264,7 +5253,7 @@
         <v>Laura</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -5279,7 +5268,7 @@
         <v>Kangmin</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -5294,7 +5283,7 @@
         <v>Jasper</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -5336,7 +5325,7 @@
         <v xml:space="preserve">Sherry Liu </v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -5789,40 +5778,40 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="J1" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" t="s">
         <v>425</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="H1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1" t="s">
-        <v>428</v>
-      </c>
-      <c r="J1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K1" t="s">
-        <v>430</v>
-      </c>
-      <c r="L1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5834,13 +5823,13 @@
         <f>'Basic Information'!B2</f>
         <v>Jazper Lu</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="N2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5852,13 +5841,13 @@
         <f>'Basic Information'!B3</f>
         <v>Jasmine</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="N3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5871,10 +5860,10 @@
         <v>Megumi</v>
       </c>
       <c r="N4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5887,7 +5876,7 @@
         <v>Amy</v>
       </c>
       <c r="N5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5900,7 +5889,7 @@
         <v xml:space="preserve">Fiona Shi </v>
       </c>
       <c r="N6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5913,7 +5902,7 @@
         <v>孙晗菲 Nancy</v>
       </c>
       <c r="N7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5926,7 +5915,7 @@
         <v>Michelle</v>
       </c>
       <c r="N8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5939,10 +5928,10 @@
         <v>Nuoti</v>
       </c>
       <c r="N9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="O9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -5955,7 +5944,7 @@
         <v xml:space="preserve">Rita </v>
       </c>
       <c r="O10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -5968,7 +5957,7 @@
         <v>Yolanda</v>
       </c>
       <c r="N11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="O11" t="s">
         <v>140</v>
@@ -6414,7 +6403,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -6428,31 +6417,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6473,7 +6462,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6548,7 +6537,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="M7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6587,7 +6576,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="L9" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/Volunteer Data Tracker.xlsx
+++ b/Volunteer Data Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mothers English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DMECC-Codebase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE2C54-5A0E-49CD-B2E2-C046DDA9D130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67953D9-514B-48D1-A617-50E6BBF98545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{5DCEDBF0-2921-8C48-A18A-71523FCE5621}"/>
+    <workbookView xWindow="7095" yWindow="4425" windowWidth="28800" windowHeight="15465" xr2:uid="{5DCEDBF0-2921-8C48-A18A-71523FCE5621}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="1" r:id="rId1"/>
@@ -2090,9 +2090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAA589B-000E-0B45-9E72-F12A7868D771}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Volunteer Data Tracker.xlsx
+++ b/Volunteer Data Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DMECC-Codebase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mothers English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67953D9-514B-48D1-A617-50E6BBF98545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE2C54-5A0E-49CD-B2E2-C046DDA9D130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="4425" windowWidth="28800" windowHeight="15465" xr2:uid="{5DCEDBF0-2921-8C48-A18A-71523FCE5621}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{5DCEDBF0-2921-8C48-A18A-71523FCE5621}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="1" r:id="rId1"/>
@@ -2090,9 +2090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAA589B-000E-0B45-9E72-F12A7868D771}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
